--- a/Assets/DataTable/DataTable_pre.xlsx
+++ b/Assets/DataTable/DataTable_pre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/2/Funkeln_schmuck/Assets/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/2/Funkeln/Assets/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7385433F-A095-0E4A-A474-0D59C94954BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769559F-35A7-7C4F-BF13-61C9A7DA7D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -103,45 +103,6 @@
   <si>
     <t>CriticalHit</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>キャラクター名</t>
-  </si>
-  <si>
-    <t>攻撃力</t>
-  </si>
-  <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>移動速度</t>
-  </si>
-  <si>
-    <t>攻撃速度</t>
-  </si>
-  <si>
-    <t>攻撃範囲</t>
-  </si>
-  <si>
-    <t>スキルゲージ</t>
-  </si>
-  <si>
-    <t>ゲージ回復値</t>
-  </si>
-  <si>
-    <t>レア度</t>
-  </si>
-  <si>
-    <t>レベル</t>
-  </si>
-  <si>
-    <t>回避率</t>
-  </si>
-  <si>
-    <t>クリ威力</t>
-  </si>
-  <si>
-    <t>クリ率</t>
   </si>
   <si>
     <t>エネミー</t>
@@ -482,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,12 +475,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B50CB-D018-479A-8735-FB81A84DE7B7}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -903,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -924,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>14</v>
@@ -939,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>17</v>
@@ -1238,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1251,47 +1206,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16" thickBot="1">
@@ -1299,7 +1254,7 @@
         <v>4000</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6">
         <v>3000</v>
@@ -1342,49 +1297,49 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>104000</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13">
         <v>50000</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>2000</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>500</v>
       </c>
-      <c r="F3" s="15">
-        <v>100</v>
-      </c>
-      <c r="G3" s="15">
-        <v>100</v>
-      </c>
-      <c r="H3" s="15">
-        <v>100</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="F3" s="13">
+        <v>100</v>
+      </c>
+      <c r="G3" s="13">
+        <v>100</v>
+      </c>
+      <c r="H3" s="13">
+        <v>100</v>
+      </c>
+      <c r="I3" s="13">
         <v>1000</v>
       </c>
-      <c r="J3" s="16">
-        <v>100</v>
-      </c>
-      <c r="K3" s="15">
+      <c r="J3" s="14">
+        <v>100</v>
+      </c>
+      <c r="K3" s="13">
         <v>1</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <v>80</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="13">
         <v>5</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="13">
         <v>50</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1417,130 +1372,130 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="B2" s="24"/>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="19">
         <v>25</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
         <v>25</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>10</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>33</v>
+      <c r="H2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="B3" s="24"/>
+      <c r="C3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="19">
         <v>25</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>25</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>33</v>
+      <c r="H3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="B4" s="24"/>
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="D4" s="18">
+        <v>20</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="19">
         <v>25</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>10</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>25</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>25</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>10</v>
       </c>
     </row>
@@ -1571,70 +1526,70 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="B2" s="24"/>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="19">
         <v>25</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
         <v>25</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="21">
+      <c r="G2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="19">
         <v>50</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>50</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="20">
         <v>20</v>
       </c>
     </row>
@@ -1666,65 +1621,65 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1758,416 +1713,416 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="27">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25">
         <v>50</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27">
+      <c r="D2" s="26"/>
+      <c r="E2" s="25">
         <v>50</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25">
         <v>50</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27">
-        <v>50</v>
-      </c>
-      <c r="E3" s="27">
-        <v>100</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="E3" s="25">
+        <v>100</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="3:12">
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/Assets/DataTable/DataTable_pre.xlsx
+++ b/Assets/DataTable/DataTable_pre.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/2/Funkeln/Assets/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Project\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769559F-35A7-7C4F-BF13-61C9A7DA7D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56079E97-6434-4D55-8D00-E5536319C78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="4872" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
     <sheet name="Enemy" sheetId="2" r:id="rId2"/>
-    <sheet name="Dialogue" sheetId="6" r:id="rId3"/>
-    <sheet name=" Enemy-Dialogue" sheetId="3" r:id="rId4"/>
-    <sheet name="TAG-Dialogue" sheetId="7" r:id="rId5"/>
-    <sheet name="Trio-Dialogue" sheetId="8" r:id="rId6"/>
+    <sheet name="Buff" sheetId="6" r:id="rId3"/>
+    <sheet name=" Enemy_Buff" sheetId="3" r:id="rId4"/>
+    <sheet name="TAG_Buff" sheetId="7" r:id="rId5"/>
+    <sheet name="Trio_Buff" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -197,13 +197,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,7 +222,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -519,15 +519,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -845,15 +845,15 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" thickBot="1">
+    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" thickBot="1">
+    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
+    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1">
+    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>101000</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1">
+    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>102000</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1">
+    <row r="7" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>103000</v>
       </c>
@@ -1193,16 +1193,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" thickBot="1">
+    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
+    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>104000</v>
       </c>
@@ -1358,17 +1358,17 @@
       <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="17.296875" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" thickBot="1">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1509,20 +1509,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BCB0DF-3180-4DD5-A64F-59337435BF2D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.796875" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1596,6 +1596,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1607,17 +1608,17 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" customWidth="1"/>
+    <col min="9" max="10" width="15.19921875" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" customWidth="1"/>
+    <col min="12" max="12" width="10.69921875" customWidth="1"/>
+    <col min="13" max="13" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31" thickBot="1">
+    <row r="1" spans="1:13" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" thickBot="1">
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -1692,24 +1693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86A2C4-3076-4BE9-9FDF-DEF5E5E28885}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" thickBot="1">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>36</v>
       </c>
@@ -1769,7 +1770,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -1788,7 +1789,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -1800,7 +1801,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -1812,7 +1813,7 @@
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -1824,7 +1825,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -1836,7 +1837,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -1848,7 +1849,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1860,7 +1861,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1872,7 +1873,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -1884,7 +1885,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1896,7 +1897,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -1908,7 +1909,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1920,7 +1921,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1932,7 +1933,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -1944,7 +1945,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -1956,7 +1957,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -1968,7 +1969,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -1980,7 +1981,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -1992,7 +1993,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -2004,7 +2005,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -2016,7 +2017,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -2028,7 +2029,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -2040,7 +2041,7 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2052,7 +2053,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -2064,7 +2065,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -2076,7 +2077,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -2088,7 +2089,7 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -2100,7 +2101,7 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -2112,7 +2113,7 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>

--- a/Assets/DataTable/DataTable_pre.xlsx
+++ b/Assets/DataTable/DataTable_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Project\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56079E97-6434-4D55-8D00-E5536319C78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C26F36-8930-4892-8102-DD9DC22EDA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="1536" yWindow="3228" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -111,12 +111,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>攻撃+50</t>
-  </si>
-  <si>
     <t>HPHeal</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -190,6 +184,37 @@
   </si>
   <si>
     <t>CriticalDMG</t>
+  </si>
+  <si>
+    <t>基本バフ１</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基本バフ２</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基本バフ３</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵基本バフ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -199,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +265,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -516,14 +548,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,7 +874,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -851,6 +883,7 @@
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" customWidth="1"/>
     <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="14" max="14" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -858,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -879,10 +912,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>14</v>
@@ -894,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>17</v>
@@ -1193,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999520B0-53BC-4391-B987-FDEDA7D46592}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1207,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1228,10 +1261,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>14</v>
@@ -1243,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>17</v>
@@ -1355,7 +1388,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1373,52 +1406,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
+      <c r="B2" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1429,26 +1458,19 @@
       <c r="G2" s="20">
         <v>10</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>20</v>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="4">
+        <v>101000</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>20</v>
+      <c r="B3" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="E3" s="19">
         <v>25</v>
@@ -1459,30 +1481,23 @@
       <c r="G3" s="20">
         <v>10</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>20</v>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="4">
+        <v>102000</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="18" t="s">
-        <v>20</v>
+      <c r="B4" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="18">
         <v>20</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="19">
         <v>25</v>
       </c>
@@ -1497,6 +1512,9 @@
       </c>
       <c r="J4" s="20">
         <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <v>103000</v>
       </c>
     </row>
   </sheetData>
@@ -1509,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BCB0DF-3180-4DD5-A64F-59337435BF2D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1527,52 +1545,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
+      <c r="B2" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="E2" s="19">
         <v>25</v>
@@ -1580,9 +1594,6 @@
       <c r="F2" s="19">
         <v>25</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="19">
         <v>50</v>
       </c>
@@ -1591,6 +1602,9 @@
       </c>
       <c r="J2" s="20">
         <v>20</v>
+      </c>
+      <c r="K2" s="4">
+        <v>104000</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1619,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1623,64 +1637,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>21020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="19">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4">
+        <v>101000</v>
+      </c>
+      <c r="L2" s="4">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>23020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="19">
+        <v>50</v>
+      </c>
+      <c r="K3" s="4">
+        <v>103000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>21030</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
+      <c r="E4" s="19">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4">
+        <v>101000</v>
+      </c>
+      <c r="L4" s="4">
+        <v>103000</v>
       </c>
     </row>
   </sheetData>
@@ -1693,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86A2C4-3076-4BE9-9FDF-DEF5E5E28885}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1715,415 +1756,434 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3102030</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="C2" s="24">
+        <v>50</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
+        <v>50</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="4">
+        <v>101000</v>
+      </c>
+      <c r="L2" s="4">
+        <v>102000</v>
+      </c>
+      <c r="M2" s="4">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3102010</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24">
         <v>50</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25">
-        <v>50</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25">
-        <v>50</v>
-      </c>
-      <c r="E3" s="25">
-        <v>100</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="E3" s="24">
+        <v>100</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="4">
+        <v>101000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>102000</v>
+      </c>
+      <c r="M3" s="4">
+        <v>101000</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/Assets/DataTable/DataTable_pre.xlsx
+++ b/Assets/DataTable/DataTable_pre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Project\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/2/Funkeln/Assets/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56079E97-6434-4D55-8D00-E5536319C78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9FBD4C-E32A-8341-BAC9-5D701921BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
+    <workbookView xWindow="4880" yWindow="3400" windowWidth="17280" windowHeight="8960" activeTab="5" xr2:uid="{1BBA983B-BC0B-4D31-AD3B-62B0C1995AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -197,13 +197,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,7 +222,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -519,15 +519,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -842,18 +842,18 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="A7" sqref="A1:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="29" thickBot="1">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="4">
         <v>101000</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="4">
         <v>102000</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16" thickBot="1">
       <c r="A7" s="4">
         <v>103000</v>
       </c>
@@ -1197,12 +1197,12 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="11">
         <v>104000</v>
       </c>
@@ -1358,17 +1358,17 @@
       <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" customWidth="1"/>
-    <col min="8" max="8" width="17.296875" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="4">
         <v>3000</v>
       </c>
@@ -1513,16 +1513,16 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="17.796875" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="4">
         <v>4000</v>
       </c>
@@ -1608,17 +1608,17 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.296875" customWidth="1"/>
-    <col min="8" max="8" width="12.796875" customWidth="1"/>
-    <col min="9" max="10" width="15.19921875" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="31" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -1697,20 +1697,20 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="15.796875" customWidth="1"/>
-    <col min="15" max="15" width="16.796875" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="B2" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -1801,7 +1801,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -1813,7 +1813,7 @@
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -1825,7 +1825,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -1837,7 +1837,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -1849,7 +1849,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1861,7 +1861,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1873,7 +1873,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -1885,7 +1885,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -1897,7 +1897,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -1909,7 +1909,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1921,7 +1921,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1933,7 +1933,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -1945,7 +1945,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:12">
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -1957,7 +1957,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:12">
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -1969,7 +1969,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:12">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -1981,7 +1981,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:12">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -1993,7 +1993,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:12">
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -2005,7 +2005,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:12">
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -2017,7 +2017,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:12">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -2029,7 +2029,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:12">
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -2041,7 +2041,7 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:12">
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2053,7 +2053,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:12">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -2065,7 +2065,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:12">
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -2077,7 +2077,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:12">
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -2089,7 +2089,7 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:12">
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -2101,7 +2101,7 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:12">
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -2113,7 +2113,7 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:12">
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
